--- a/ESERCIZIO 2.xlsx
+++ b/ESERCIZIO 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annun\Downloads\ESERCITAZIONE EXCEL\week1\M2-1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B0263B-AB43-48D0-A2F0-997774DB6990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F6903A-95C0-4AA7-8ED8-91BF00B8B394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1356,7 +1356,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1420,7 @@
         <v>-</v>
       </c>
       <c r="E5" s="38" t="str">
-        <f>IF(A5="HHB",20%*C5,"-")</f>
+        <f>IF(A5="HHB",22%*C5,"-")</f>
         <v>-</v>
       </c>
       <c r="F5" s="18" t="str">
@@ -1443,7 +1443,7 @@
         <v>TROVATO</v>
       </c>
       <c r="E6" s="38" t="str">
-        <f t="shared" ref="E6:E69" si="1">IF(A6="HHB",20%*C6,"-")</f>
+        <f t="shared" ref="E6:E69" si="1">IF(A6="HHB",22%*C6,"-")</f>
         <v>-</v>
       </c>
       <c r="F6" s="18" t="str">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="E7" s="38">
         <f t="shared" si="1"/>
-        <v>68800</v>
+        <v>75680</v>
       </c>
       <c r="F7" s="18" t="str">
         <f t="shared" si="2"/>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="E12" s="38">
         <f t="shared" si="1"/>
-        <v>131200</v>
+        <v>144320</v>
       </c>
       <c r="F12" s="18" t="str">
         <f t="shared" si="2"/>
@@ -2929,7 +2929,7 @@
         <v>-</v>
       </c>
       <c r="E70" s="38" t="str">
-        <f t="shared" ref="E70:E133" si="4">IF(A70="HHB",20%*C70,"-")</f>
+        <f t="shared" ref="E70:E133" si="4">IF(A70="HHB",22%*C70,"-")</f>
         <v>-</v>
       </c>
       <c r="F70" s="18" t="str">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="E86" s="38">
         <f t="shared" si="4"/>
-        <v>93800</v>
+        <v>103180</v>
       </c>
       <c r="F86" s="18" t="str">
         <f t="shared" si="5"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="E91" s="38">
         <f t="shared" si="4"/>
-        <v>139000</v>
+        <v>152900</v>
       </c>
       <c r="F91" s="18" t="str">
         <f t="shared" si="5"/>
@@ -4401,7 +4401,7 @@
         <v>-</v>
       </c>
       <c r="E134" s="38" t="str">
-        <f t="shared" ref="E134:E197" si="7">IF(A134="HHB",20%*C134,"-")</f>
+        <f t="shared" ref="E134:E197" si="7">IF(A134="HHB",22%*C134,"-")</f>
         <v>-</v>
       </c>
       <c r="F134" s="18" t="str">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="E170" s="38">
         <f t="shared" si="7"/>
-        <v>151400</v>
+        <v>166540</v>
       </c>
       <c r="F170" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5867,7 +5867,7 @@
         <v>-</v>
       </c>
       <c r="E198" s="38" t="str">
-        <f t="shared" ref="E198:E261" si="10">IF(A198="HHB",20%*C198,"-")</f>
+        <f t="shared" ref="E198:E261" si="10">IF(A198="HHB",22%*C198,"-")</f>
         <v>-</v>
       </c>
       <c r="F198" s="18" t="str">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="E244" s="38">
         <f t="shared" si="10"/>
-        <v>266800</v>
+        <v>293480</v>
       </c>
       <c r="F244" s="18" t="str">
         <f t="shared" si="11"/>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="E249" s="38">
         <f t="shared" si="10"/>
-        <v>129000</v>
+        <v>141900</v>
       </c>
       <c r="F249" s="18" t="str">
         <f t="shared" si="11"/>
@@ -7337,7 +7337,7 @@
         <v>-</v>
       </c>
       <c r="E262" s="38" t="str">
-        <f t="shared" ref="E262:E325" si="13">IF(A262="HHB",20%*C262,"-")</f>
+        <f t="shared" ref="E262:E325" si="13">IF(A262="HHB",22%*C262,"-")</f>
         <v>-</v>
       </c>
       <c r="F262" s="18" t="str">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="E323" s="38">
         <f t="shared" si="13"/>
-        <v>16800</v>
+        <v>18480</v>
       </c>
       <c r="F323" s="18" t="str">
         <f t="shared" si="14"/>
@@ -8805,7 +8805,7 @@
         <v>-</v>
       </c>
       <c r="E326" s="38" t="str">
-        <f t="shared" ref="E326:E340" si="16">IF(A326="HHB",20%*C326,"-")</f>
+        <f t="shared" ref="E326:E340" si="16">IF(A326="HHB",22%*C326,"-")</f>
         <v>-</v>
       </c>
       <c r="F326" s="18" t="str">
@@ -9152,7 +9152,7 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9296,7 +9296,7 @@
         <v>58</v>
       </c>
       <c r="H6" s="27">
-        <f t="shared" si="0"/>
+        <f>SUMIF($C$1:$C$80,G6,$D$1:$D$80)</f>
         <v>6765600</v>
       </c>
     </row>
@@ -9363,7 +9363,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="25">
-        <f t="shared" ref="H9:H14" si="1">SUMIF($B$1:$B$80,G9,$E$1:$E$80)</f>
+        <f>SUMIF($B$1:$B$80,G9,$E$1:$E$80)</f>
         <v>22</v>
       </c>
     </row>
@@ -9387,7 +9387,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H9:H14" si="1">SUMIF($B$1:$B$80,G10,$E$1:$E$80)</f>
         <v>21</v>
       </c>
     </row>
@@ -9459,7 +9459,7 @@
         <v>59</v>
       </c>
       <c r="H13" s="25">
-        <f t="shared" si="1"/>
+        <f>SUMIF($B$1:$B$80,G13,$E$1:$E$80)</f>
         <v>34</v>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
